--- a/src/test/resources/files/testdata.xlsx
+++ b/src/test/resources/files/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamil.nowocin/Desktop/Test_Automation-automationpractice/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6FB0FC-28FB-8746-BA1A-464B41AB5DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60E95D-135D-C940-9612-62375C0416A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{33D9A003-A741-614F-8285-B8C4731BD394}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1648,15 +1648,270 @@
     </row>
   </sheetData>
   <mergeCells count="297">
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:I65"/>
@@ -1681,270 +1936,15 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E99">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PASSED">

--- a/src/test/resources/files/testdata.xlsx
+++ b/src/test/resources/files/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamil.nowocin/Desktop/Test_Automation-automationpractice/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60E95D-135D-C940-9612-62375C0416A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B9B4E-FF2E-1245-9379-084C230130EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{33D9A003-A741-614F-8285-B8C4731BD394}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>TEST CASE NAME</t>
   </si>
   <si>
-    <t>FAILED</t>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E58"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1648,6 +1648,279 @@
     </row>
   </sheetData>
   <mergeCells count="297">
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:I99"/>
@@ -1672,279 +1945,6 @@
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="F93:G93"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E99">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PASSED">

--- a/src/test/resources/files/testdata.xlsx
+++ b/src/test/resources/files/testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamil.nowocin/Desktop/Test_Automation-automationpractice/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CED4AE4-D72D-9347-8E5F-16768ED821E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F6DC1A-62F1-A34C-98AA-12F6CE090DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{33D9A003-A741-614F-8285-B8C4731BD394}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>wwww@test.pl</t>
   </si>
@@ -49,11 +49,18 @@
   <si>
     <t>STATUS</t>
   </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>[US-111]/[1] I CAN LOG INTO AUTOMATIONPRACTICE.COM USING REGISTERED EMAIL "THOR.ODINSON@EXAMPLE.COM" &amp; PASSWORD "12345"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -529,20 +536,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3948BB33-7707-DB4E-B60C-146BE6C8A78E}">
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1" collapsed="1"/>
-    <col min="8" max="9" width="10.83203125" style="2" collapsed="1"/>
-    <col min="14" max="17" width="10.83203125" style="1" collapsed="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" collapsed="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1" collapsed="1"/>
+    <col min="1" max="7" style="1" width="10.83203125" collapsed="true"/>
+    <col min="8" max="9" style="2" width="10.83203125" collapsed="true"/>
+    <col min="14" max="17" style="1" width="10.83203125" collapsed="true"/>
+    <col min="22" max="22" style="1" width="10.83203125" collapsed="true"/>
+    <col min="27" max="16384" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" ht="17" thickBot="1">
@@ -565,11 +572,15 @@
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
